--- a/Parametros_entrenamientos.xlsx
+++ b/Parametros_entrenamientos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\julio\Documents\VIU\2425\TFM\codigo\trabajo aprendizaje refuerzo\git\Proyecto_programacion_APR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3EB09C-9A7C-45BC-B63E-A0D64485DCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7B0D4A-6002-49C3-ADDE-623A9FB51A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="78">
   <si>
     <t>PRUEBAS</t>
   </si>
@@ -247,6 +247,18 @@
     <t xml:space="preserve">va subiendo un poco "linealmente"
 ligera mayor estabilidad que para los otros casos
 </t>
+  </si>
+  <si>
+    <t>num_episodes</t>
+  </si>
+  <si>
+    <t>112m 37 seg</t>
+  </si>
+  <si>
+    <t>7 ~ 23 | Media: 11.80</t>
+  </si>
+  <si>
+    <t>va subiendo mucho</t>
   </si>
 </sst>
 </file>
@@ -1139,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1151,7 +1163,8 @@
     <col min="2" max="2" width="22.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="14.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1396,6 +1409,9 @@
       <c r="D12" t="s">
         <v>71</v>
       </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
@@ -1407,6 +1423,9 @@
       <c r="D13" t="s">
         <v>70</v>
       </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -1418,6 +1437,9 @@
       <c r="D14" t="s">
         <v>66</v>
       </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
@@ -1429,6 +1451,9 @@
       <c r="D15" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
@@ -1440,8 +1465,11 @@
       <c r="D16" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>56</v>
       </c>
@@ -1451,8 +1479,11 @@
       <c r="D17" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>58</v>
       </c>
@@ -1461,12 +1492,26 @@
       </c>
       <c r="D18" t="s">
         <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19">
+        <v>660</v>
+      </c>
+      <c r="E19">
+        <v>672</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:K5 A19:B19 A12 C12 A13:C13 E13:K13 E12:K12 A14:C14 E14:K14 A15:B15 E15:K15 A16:B16 E16:K16 A17:B17 E17:K17 A18:B18 E18:K18 A20:B20 D20:K20 D19:K19 A9:B9 A7:B7 F7:K7 A8:B8 F8:K8 A11:B11 F11:K11 A10:B10 F10:K10 F9:K9 A6:B6 D6:K6" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:K5 A19 A12 C12 A13:C13 F13:K13 F12:K12 A14:C14 F14:K14 A15:B15 F15:K15 A16:B16 F16:K16 A17:B17 F17:K17 A18:B18 F18:K18 A20:B20 D20:K20 F19:K19 A9:B9 A7:B7 F7:K7 A8:B8 F8:K8 A11:B11 F11:K11 A10:B10 F10:K10 F9:K9 A6:B6 D6:K6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Parametros_entrenamientos.xlsx
+++ b/Parametros_entrenamientos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\julio\Documents\VIU\2425\TFM\codigo\trabajo aprendizaje refuerzo\git\Proyecto_programacion_APR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49149E8B-9DCE-4585-B535-E1C157E0D989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BE9284-518D-4A03-BFEC-9C52B3A20D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="78">
   <si>
     <t>PRUEBAS</t>
   </si>
@@ -214,9 +214,6 @@
   </si>
   <si>
     <t>500,000</t>
-  </si>
-  <si>
-    <t>0.97</t>
   </si>
   <si>
     <t>18 ~ 20 Mean 19,6_x000D_</t>
@@ -250,6 +247,18 @@
     <t xml:space="preserve">va subiendo un poco "linealmente"
 ligera mayor estabilidad que para los otros casos
 </t>
+  </si>
+  <si>
+    <t>num_episodes</t>
+  </si>
+  <si>
+    <t>112m 37 seg</t>
+  </si>
+  <si>
+    <t>7 ~ 23 | Media: 11.80</t>
+  </si>
+  <si>
+    <t>va subiendo mucho</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1039,7 @@
         <v>53</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s">
         <v>53</v>
@@ -1059,7 +1068,7 @@
         <v>53</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
         <v>53</v>
@@ -1142,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D18"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1154,7 +1163,8 @@
     <col min="2" max="2" width="22.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="14.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1288,8 +1298,8 @@
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
+      <c r="C6">
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -1320,55 +1330,70 @@
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
+      <c r="C7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>64</v>
+      <c r="C8">
+        <v>0.99</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="E8">
+        <v>0.99</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
+      <c r="C9">
+        <v>10000</v>
+      </c>
+      <c r="D9">
+        <v>10000</v>
+      </c>
+      <c r="E9">
+        <v>10000</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
@@ -1376,13 +1401,16 @@
         <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1390,10 +1418,13 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1401,10 +1432,13 @@
         <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
@@ -1412,10 +1446,13 @@
         <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
@@ -1423,24 +1460,30 @@
         <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>58</v>
       </c>
@@ -1449,12 +1492,26 @@
       </c>
       <c r="D18" t="s">
         <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19">
+        <v>660</v>
+      </c>
+      <c r="E19">
+        <v>672</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:K11 A19:B19 A12 C12 A13:C13 E13:K13 E12:K12 A14:C14 E14:K14 A15:B15 E15:K15 A16:B16 E16:K16 A17:B17 E17:K17 A18:B18 E18:K18 A20:B20 D20:K20 D19:K19" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:K5 A19 A12 C12 A13:C13 F13:K13 F12:K12 A14:C14 F14:K14 A15:B15 F15:K15 A16:B16 F16:K16 A17:B17 F17:K17 A18:B18 F18:K18 A20:B20 D20:K20 F19:K19 A9:B9 A7:B7 F7:K7 A8:B8 F8:K8 A11:B11 F11:K11 A10:B10 F10:K10 F9:K9 A6:B6 D6:K6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Parametros_entrenamientos.xlsx
+++ b/Parametros_entrenamientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\julio\Documents\VIU\2425\TFM\codigo\trabajo aprendizaje refuerzo\git\Proyecto_programacion_APR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7B0D4A-6002-49C3-ADDE-623A9FB51A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BE9284-518D-4A03-BFEC-9C52B3A20D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1153,7 +1153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>

--- a/Parametros_entrenamientos.xlsx
+++ b/Parametros_entrenamientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\julio\Documents\VIU\2425\TFM\codigo\trabajo aprendizaje refuerzo\git\Proyecto_programacion_APR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BE9284-518D-4A03-BFEC-9C52B3A20D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DF26F9-51C6-4E40-AFAD-A897D435A464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="81">
   <si>
     <t>PRUEBAS</t>
   </si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>va subiendo mucho</t>
+  </si>
+  <si>
+    <t>422 m 24 seg</t>
+  </si>
+  <si>
+    <t>18 ~ 19 | Media: 18.30</t>
+  </si>
+  <si>
+    <t>creciente pero menos que en el experimento 2</t>
   </si>
 </sst>
 </file>
@@ -1153,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1164,7 +1173,8 @@
     <col min="3" max="3" width="42.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="14.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1243,8 +1253,8 @@
       <c r="E4" t="s">
         <v>62</v>
       </c>
-      <c r="F4" t="s">
-        <v>62</v>
+      <c r="F4" s="1">
+        <v>1000000</v>
       </c>
       <c r="G4" t="s">
         <v>62</v>
@@ -1339,6 +1349,9 @@
       <c r="E7" s="1">
         <v>5.0000000000000002E-5</v>
       </c>
+      <c r="F7">
+        <v>5.0000000000000002E-5</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -1353,6 +1366,9 @@
       <c r="E8">
         <v>0.99</v>
       </c>
+      <c r="F8">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -1367,6 +1383,9 @@
       <c r="E9">
         <v>10000</v>
       </c>
+      <c r="F9">
+        <v>10000</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
@@ -1381,6 +1400,9 @@
       <c r="E10">
         <v>24</v>
       </c>
+      <c r="F10">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -1395,6 +1417,9 @@
       <c r="E11">
         <v>1</v>
       </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1412,6 +1437,9 @@
       <c r="E12" t="s">
         <v>76</v>
       </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
@@ -1426,6 +1454,9 @@
       <c r="E13" t="s">
         <v>75</v>
       </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -1440,6 +1471,9 @@
       <c r="E14" t="s">
         <v>66</v>
       </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
@@ -1451,12 +1485,15 @@
       <c r="D15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="F15" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1465,11 +1502,14 @@
       <c r="D16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>56</v>
       </c>
@@ -1482,8 +1522,11 @@
       <c r="E17" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>58</v>
       </c>
@@ -1496,8 +1539,11 @@
       <c r="E18" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>74</v>
       </c>
@@ -1506,12 +1552,15 @@
       </c>
       <c r="E19">
         <v>672</v>
+      </c>
+      <c r="F19">
+        <v>1333</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:K5 A19 A12 C12 A13:C13 F13:K13 F12:K12 A14:C14 F14:K14 A15:B15 F15:K15 A16:B16 F16:K16 A17:B17 F17:K17 A18:B18 F18:K18 A20:B20 D20:K20 F19:K19 A9:B9 A7:B7 F7:K7 A8:B8 F8:K8 A11:B11 F11:K11 A10:B10 F10:K10 F9:K9 A6:B6 D6:K6" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:K3 A19 A12 C12 A13:C13 G13:K13 G12:K12 A14:C14 G14:K14 A15:B15 G15:K15 A16:B16 G16:K16 A17:B17 G17:K17 A18:B18 G18:K18 A20:B20 D20:K20 G19:K19 A9:B9 A7:B7 G7:K7 A8:B8 G8:K8 A11:B11 G11:K11 A10:B10 G10:K10 G9:K9 A6:B6 D6:K6 A5:K5 A4:E4 G4:K4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Parametros_entrenamientos.xlsx
+++ b/Parametros_entrenamientos.xlsx
@@ -8,20 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\julio\Documents\VIU\2425\TFM\codigo\trabajo aprendizaje refuerzo\git\Proyecto_programacion_APR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DF26F9-51C6-4E40-AFAD-A897D435A464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DC7C6C-FD19-4D89-9277-FB091ED232A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parametros para pruebas" sheetId="1" r:id="rId1"/>
     <sheet name="Parametros para entrenamientos" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="104">
   <si>
     <t>PRUEBAS</t>
   </si>
@@ -204,24 +218,9 @@
     <t>inestable</t>
   </si>
   <si>
-    <t>ENTRENAMIENTOS</t>
-  </si>
-  <si>
-    <t>PARÁMETROS PRUEBAS</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>500,000</t>
-  </si>
-  <si>
     <t>18 ~ 20 Mean 19,6_x000D_</t>
   </si>
   <si>
-    <t>26 m 11 seg_x000D_</t>
-  </si>
-  <si>
     <t>estable_x000D_</t>
   </si>
   <si>
@@ -232,9 +231,6 @@
   </si>
   <si>
     <t>Puntuaciones Test (mejor resultado test)</t>
-  </si>
-  <si>
-    <t>99m 56 seg</t>
   </si>
   <si>
     <t>3 ~ 10 | Media: 6.20</t>
@@ -249,32 +245,122 @@
 </t>
   </si>
   <si>
-    <t>num_episodes</t>
-  </si>
-  <si>
-    <t>112m 37 seg</t>
-  </si>
-  <si>
     <t>7 ~ 23 | Media: 11.80</t>
   </si>
   <si>
     <t>va subiendo mucho</t>
   </si>
   <si>
-    <t>422 m 24 seg</t>
-  </si>
-  <si>
     <t>18 ~ 19 | Media: 18.30</t>
   </si>
   <si>
     <t>creciente pero menos que en el experimento 2</t>
+  </si>
+  <si>
+    <t>17 ~ 17 | Media: 17.00</t>
+  </si>
+  <si>
+    <t>0 ~ 0 | Media: 0</t>
+  </si>
+  <si>
+    <t>errático</t>
+  </si>
+  <si>
+    <t>9 ~ 15 | Media: 13.80</t>
+  </si>
+  <si>
+    <t>crece menos que el resto</t>
+  </si>
+  <si>
+    <t>6 ~ 19 | Media: 12.00</t>
+  </si>
+  <si>
+    <t>10 ~ 27 | Media: 18.40</t>
+  </si>
+  <si>
+    <t>mejor test last_weights (10 test)</t>
+  </si>
+  <si>
+    <t>mejor test best_weights (10 test)</t>
+  </si>
+  <si>
+    <t>18 ~ 19 | Media: 18.60</t>
+  </si>
+  <si>
+    <t>5 ~ 19 | Media: 12.40</t>
+  </si>
+  <si>
+    <t>primer test</t>
+  </si>
+  <si>
+    <t>0 ~ 0 | Media: 0.00</t>
+  </si>
+  <si>
+    <t>SE PARTE DEL BEST_WEIGHTS DEL EXP_2
+hay cambios en la policy tambien (valor de eps)</t>
+  </si>
+  <si>
+    <t>110 m 7 seg</t>
+  </si>
+  <si>
+    <t>15 ~ 22 | Media: 18.20</t>
+  </si>
+  <si>
+    <t>EXPERIMENTO 9</t>
+  </si>
+  <si>
+    <t>EXPERIMENTO 10</t>
+  </si>
+  <si>
+    <t>EXPERIMENTO 11</t>
+  </si>
+  <si>
+    <t>EXPERIMENTO 12</t>
+  </si>
+  <si>
+    <t>EXPERIMENTO 13</t>
+  </si>
+  <si>
+    <t>EXPERIMENTO 14</t>
+  </si>
+  <si>
+    <t>EXPERIMENTO 15</t>
+  </si>
+  <si>
+    <t>carga el experimento base con un nuevo learning rate</t>
+  </si>
+  <si>
+    <t>observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muy parecido al experimento_1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muy parecido al experimento_5
+</t>
+  </si>
+  <si>
+    <t>EXPERIMENTO BASE</t>
+  </si>
+  <si>
+    <t>relanzar experimento base de nuevo con los mismos parametros pero ampliando el limite en el parámetro memory y policy de nb_steps a 1,000,000</t>
+  </si>
+  <si>
+    <t>18 ~ 18 | Media: 18</t>
+  </si>
+  <si>
+    <t>1 ~ 5 Media: 2.3</t>
+  </si>
+  <si>
+    <t>1 ~ 2 Media: 1.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -290,16 +376,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -307,21 +413,126 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,903 +875,1732 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="18.796875" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="16" t="s">
         <v>16</v>
       </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="156" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+    <row r="15" spans="1:10" s="3" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="156" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+    <row r="16" spans="1:10" ht="78" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="10" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J14 A17:J18 A15:B15 D15:E15 G15:J15 A16:E16 G16:J16" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:J3 B17:J18 B15 D15:E15 G15:J15 B16:E16 G16:J16 A12:J12 B5:J11 B13:J14 A1:C1 A4:C4 G4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="F4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.296875" customWidth="1"/>
+    <col min="4" max="5" width="18.59765625" customWidth="1"/>
+    <col min="6" max="10" width="17.09765625" customWidth="1"/>
+    <col min="11" max="11" width="24.296875" customWidth="1"/>
+    <col min="12" max="16" width="17.09765625" customWidth="1"/>
+    <col min="17" max="17" width="16.69921875" customWidth="1"/>
+    <col min="18" max="18" width="22.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D1" t="s">
+    <row r="1" spans="1:18" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="K1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6">
+        <v>100000</v>
+      </c>
+      <c r="D3" s="6">
+        <v>500000</v>
+      </c>
+      <c r="E3" s="6">
+        <v>500000</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="G3" s="6">
+        <v>500000</v>
+      </c>
+      <c r="H3" s="6">
+        <v>500000</v>
+      </c>
+      <c r="I3" s="6">
+        <v>500000</v>
+      </c>
+      <c r="J3" s="6">
+        <v>500000</v>
+      </c>
+      <c r="K3" s="6">
+        <v>500000</v>
+      </c>
+      <c r="L3" s="6">
+        <v>500000</v>
+      </c>
+      <c r="M3" s="6">
+        <v>500000</v>
+      </c>
+      <c r="N3" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="O3" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="P3" s="6">
+        <v>500000</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>100000</v>
+      </c>
+      <c r="R3" s="6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="6">
+        <v>4</v>
+      </c>
+      <c r="M5" s="6">
+        <v>4</v>
+      </c>
+      <c r="N5" s="6">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6">
+        <v>1</v>
+      </c>
+      <c r="P5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>1</v>
+      </c>
+      <c r="R5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E6" s="12">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G6" s="12">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="I6" s="6">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="J6" s="6">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="K6" s="12">
+        <v>1E-4</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1E-4</v>
+      </c>
+      <c r="M6" s="6">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="N6" s="6">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="O6" s="6">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="P6" s="6">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="R6" s="6">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.97</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0.97</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0.995</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="O7" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="6">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E8" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F8" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G8" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H8" s="6">
+        <v>10000</v>
+      </c>
+      <c r="I8" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="6">
+        <v>10000</v>
+      </c>
+      <c r="K8" s="6">
+        <v>10000</v>
+      </c>
+      <c r="L8" s="6">
+        <v>10000</v>
+      </c>
+      <c r="M8" s="6">
+        <v>10000</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1000</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1000</v>
+      </c>
+      <c r="P8" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>10000</v>
+      </c>
+      <c r="R8" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="6">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6">
+        <v>24</v>
+      </c>
+      <c r="E9" s="6">
+        <v>24</v>
+      </c>
+      <c r="F9" s="6">
+        <v>24</v>
+      </c>
+      <c r="G9" s="6">
+        <v>24</v>
+      </c>
+      <c r="H9" s="6">
+        <v>24</v>
+      </c>
+      <c r="I9" s="6">
+        <v>24</v>
+      </c>
+      <c r="J9" s="12">
+        <v>4</v>
+      </c>
+      <c r="K9" s="6">
+        <v>4</v>
+      </c>
+      <c r="L9" s="6">
+        <v>24</v>
+      </c>
+      <c r="M9" s="6">
+        <v>24</v>
+      </c>
+      <c r="N9" s="12">
+        <v>4</v>
+      </c>
+      <c r="O9" s="6">
+        <v>24</v>
+      </c>
+      <c r="P9" s="6">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>24</v>
+      </c>
+      <c r="R9" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="M10" s="6">
+        <v>1</v>
+      </c>
+      <c r="N10" s="6">
+        <v>1</v>
+      </c>
+      <c r="O10" s="6">
+        <v>1</v>
+      </c>
+      <c r="P10" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>1</v>
+      </c>
+      <c r="R10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
+      <c r="D11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="1:18" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="1:18" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H4" t="s">
+      <c r="E14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D7">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="F7">
-        <v>5.0000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8">
-        <v>0.99</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="E8">
-        <v>0.99</v>
-      </c>
-      <c r="F8">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>10000</v>
-      </c>
-      <c r="D9">
-        <v>10000</v>
-      </c>
-      <c r="E9">
-        <v>10000</v>
-      </c>
-      <c r="F9">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>24</v>
-      </c>
-      <c r="F10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="D15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F16" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19">
-        <v>660</v>
-      </c>
-      <c r="E19">
-        <v>672</v>
-      </c>
-      <c r="F19">
-        <v>1333</v>
+      <c r="G16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="1:18" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="N1:Q1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:K3 A19 A12 C12 A13:C13 G13:K13 G12:K12 A14:C14 G14:K14 A15:B15 G15:K15 A16:B16 G16:K16 A17:B17 G17:K17 A18:B18 G18:K18 A20:B20 D20:K20 G19:K19 A9:B9 A7:B7 G7:K7 A8:B8 G8:K8 A11:B11 G11:K11 A10:B10 G10:K10 G9:K9 A6:B6 D6:K6 A5:K5 A4:E4 G4:K4" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:B2 A11 C11 A18:B18 B8 B6 B7 B10 B9 B5 D5:K5 B4:K4 A3:B3 K13 K14 K15 K16 A1:C1 E1:J1 D2:K2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD98A963-B788-487F-81A7-4513170A5107}">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.69921875" hidden="1" customWidth="1"/>
+    <col min="3" max="5" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="I1" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>500000</v>
+      </c>
+      <c r="C3">
+        <v>500000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E3">
+        <v>500000</v>
+      </c>
+      <c r="F3">
+        <v>500000</v>
+      </c>
+      <c r="G3">
+        <v>500000</v>
+      </c>
+      <c r="H3">
+        <v>500000</v>
+      </c>
+      <c r="I3">
+        <v>500000</v>
+      </c>
+      <c r="J3">
+        <v>500000</v>
+      </c>
+      <c r="K3">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="D6">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F6">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G6">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="H6">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="I6">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="C7">
+        <v>0.99</v>
+      </c>
+      <c r="D7">
+        <v>0.99</v>
+      </c>
+      <c r="E7">
+        <v>0.99</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="G7">
+        <v>0.97</v>
+      </c>
+      <c r="H7">
+        <v>0.97</v>
+      </c>
+      <c r="I7">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+      <c r="C8">
+        <v>10000</v>
+      </c>
+      <c r="D8">
+        <v>10000</v>
+      </c>
+      <c r="E8">
+        <v>10000</v>
+      </c>
+      <c r="F8">
+        <v>10000</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H8">
+        <v>10000</v>
+      </c>
+      <c r="I8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>24</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Parametros_entrenamientos.xlsx
+++ b/Parametros_entrenamientos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\julio\Documents\VIU\2425\TFM\codigo\trabajo aprendizaje refuerzo\git\Proyecto_programacion_APR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\julio\Documents\VIU\2425\TFM\codigo\trabajo aprendizaje refuerzo\git\proyecto_entrega\Proyecto_programacion_APR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DC7C6C-FD19-4D89-9277-FB091ED232A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57223CA3-7A5A-4AC7-A03D-24602A66340D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parametros para pruebas" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="105">
   <si>
     <t>PRUEBAS</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>1 ~ 2 Media: 1.1</t>
+  </si>
+  <si>
+    <t>18 ~ 20 | Media: 18.2</t>
   </si>
 </sst>
 </file>
@@ -1411,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView topLeftCell="F4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1958,7 +1961,9 @@
       <c r="L11" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="M11" s="8"/>
+      <c r="M11" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="N11" s="8" t="s">
         <v>101</v>
       </c>
@@ -1968,7 +1973,9 @@
       <c r="P11" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="Q11" s="8"/>
+      <c r="Q11" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="R11" s="8" t="s">
         <v>73</v>
       </c>
@@ -2216,7 +2223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD98A963-B788-487F-81A7-4513170A5107}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
